--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Klb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H2">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.620303</v>
+        <v>0.8029856666666667</v>
       </c>
       <c r="N2">
-        <v>1.860909</v>
+        <v>2.408957</v>
       </c>
       <c r="O2">
-        <v>0.2373232757416842</v>
+        <v>0.2957787844613299</v>
       </c>
       <c r="P2">
-        <v>0.2373232757416843</v>
+        <v>0.2957787844613298</v>
       </c>
       <c r="Q2">
-        <v>0.018285291834</v>
+        <v>0.09453871447933335</v>
       </c>
       <c r="R2">
-        <v>0.164567626506</v>
+        <v>0.850848430314</v>
       </c>
       <c r="S2">
-        <v>0.03643831048547517</v>
+        <v>0.1797175949542501</v>
       </c>
       <c r="T2">
-        <v>0.03643831048547517</v>
+        <v>0.1797175949542501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H3">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.637958</v>
       </c>
       <c r="O3">
-        <v>0.4639518157903831</v>
+        <v>0.4466791209479334</v>
       </c>
       <c r="P3">
-        <v>0.4639518157903832</v>
+        <v>0.4466791209479333</v>
       </c>
       <c r="Q3">
-        <v>0.035746575308</v>
+        <v>0.1427704490573334</v>
       </c>
       <c r="R3">
-        <v>0.321719177772</v>
+        <v>1.284934041516</v>
       </c>
       <c r="S3">
-        <v>0.07123456500942188</v>
+        <v>0.2714058666487504</v>
       </c>
       <c r="T3">
-        <v>0.07123456500942189</v>
+        <v>0.2714058666487503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H4">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1168403333333333</v>
+        <v>0.07383566666666667</v>
       </c>
       <c r="N4">
-        <v>0.350521</v>
+        <v>0.221507</v>
       </c>
       <c r="O4">
-        <v>0.04470223527117709</v>
+        <v>0.02719727716587544</v>
       </c>
       <c r="P4">
-        <v>0.0447022352711771</v>
+        <v>0.02719727716587543</v>
       </c>
       <c r="Q4">
-        <v>0.003444219346</v>
+        <v>0.008692968379333334</v>
       </c>
       <c r="R4">
-        <v>0.030997974114</v>
+        <v>0.07823671541400001</v>
       </c>
       <c r="S4">
-        <v>0.006863523702491223</v>
+        <v>0.01652528679653937</v>
       </c>
       <c r="T4">
-        <v>0.006863523702491225</v>
+        <v>0.01652528679653936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H5">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I5">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J5">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4312313333333333</v>
+        <v>0.4197456666666666</v>
       </c>
       <c r="N5">
-        <v>1.293694</v>
+        <v>1.259237</v>
       </c>
       <c r="O5">
-        <v>0.164985874047233</v>
+        <v>0.1546128009793166</v>
       </c>
       <c r="P5">
-        <v>0.1649858740472331</v>
+        <v>0.1546128009793166</v>
       </c>
       <c r="Q5">
-        <v>0.012711837244</v>
+        <v>0.04941833631933333</v>
       </c>
       <c r="R5">
-        <v>0.114406535196</v>
+        <v>0.444765026874</v>
       </c>
       <c r="S5">
-        <v>0.02533171887781525</v>
+        <v>0.0939439953130774</v>
       </c>
       <c r="T5">
-        <v>0.02533171887781525</v>
+        <v>0.0939439953130774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H6">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I6">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J6">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2327196666666667</v>
+        <v>0.2055986666666667</v>
       </c>
       <c r="N6">
-        <v>0.698159</v>
+        <v>0.616796</v>
       </c>
       <c r="O6">
-        <v>0.08903679914952235</v>
+        <v>0.07573201644554486</v>
       </c>
       <c r="P6">
-        <v>0.08903679914952237</v>
+        <v>0.07573201644554485</v>
       </c>
       <c r="Q6">
-        <v>0.006860110334</v>
+        <v>0.02420595342133334</v>
       </c>
       <c r="R6">
-        <v>0.061740993006</v>
+        <v>0.217853580792</v>
       </c>
       <c r="S6">
-        <v>0.01367059561226737</v>
+        <v>0.0460153891071537</v>
       </c>
       <c r="T6">
-        <v>0.01367059561226737</v>
+        <v>0.04601538910715369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H7">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I7">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J7">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.620303</v>
+        <v>0.8029856666666667</v>
       </c>
       <c r="N7">
-        <v>1.860909</v>
+        <v>2.408957</v>
       </c>
       <c r="O7">
-        <v>0.2373232757416842</v>
+        <v>0.2957787844613299</v>
       </c>
       <c r="P7">
-        <v>0.2373232757416843</v>
+        <v>0.2957787844613298</v>
       </c>
       <c r="Q7">
-        <v>0.1008070946713333</v>
+        <v>0.023670411482</v>
       </c>
       <c r="R7">
-        <v>0.9072638520420001</v>
+        <v>0.213033703338</v>
       </c>
       <c r="S7">
-        <v>0.2008849652562091</v>
+        <v>0.04499732672007564</v>
       </c>
       <c r="T7">
-        <v>0.2008849652562091</v>
+        <v>0.04499732672007562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H8">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I8">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J8">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.637958</v>
       </c>
       <c r="O8">
-        <v>0.4639518157903831</v>
+        <v>0.4466791209479334</v>
       </c>
       <c r="P8">
-        <v>0.4639518157903832</v>
+        <v>0.4466791209479333</v>
       </c>
       <c r="Q8">
-        <v>0.1970714186004445</v>
+        <v>0.035746575308</v>
       </c>
       <c r="R8">
-        <v>1.773642767404</v>
+        <v>0.321719177772</v>
       </c>
       <c r="S8">
-        <v>0.3927172507809613</v>
+        <v>0.06795405012207063</v>
       </c>
       <c r="T8">
-        <v>0.3927172507809613</v>
+        <v>0.06795405012207062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H9">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I9">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J9">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1168403333333333</v>
+        <v>0.07383566666666667</v>
       </c>
       <c r="N9">
-        <v>0.350521</v>
+        <v>0.221507</v>
       </c>
       <c r="O9">
-        <v>0.04470223527117709</v>
+        <v>0.02719727716587544</v>
       </c>
       <c r="P9">
-        <v>0.0447022352711771</v>
+        <v>0.02719727716587543</v>
       </c>
       <c r="Q9">
-        <v>0.01898803414422222</v>
+        <v>0.002176527782</v>
       </c>
       <c r="R9">
-        <v>0.170892307298</v>
+        <v>0.019588750038</v>
       </c>
       <c r="S9">
-        <v>0.03783871156868587</v>
+        <v>0.004137567773017033</v>
       </c>
       <c r="T9">
-        <v>0.03783871156868587</v>
+        <v>0.004137567773017032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H10">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I10">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J10">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4312313333333333</v>
+        <v>0.4197456666666666</v>
       </c>
       <c r="N10">
-        <v>1.293694</v>
+        <v>1.259237</v>
       </c>
       <c r="O10">
-        <v>0.164985874047233</v>
+        <v>0.1546128009793166</v>
       </c>
       <c r="P10">
-        <v>0.1649858740472331</v>
+        <v>0.1546128009793166</v>
       </c>
       <c r="Q10">
-        <v>0.07008055393022222</v>
+        <v>0.012373262762</v>
       </c>
       <c r="R10">
-        <v>0.6307249853719999</v>
+        <v>0.111359364858</v>
       </c>
       <c r="S10">
-        <v>0.1396541551694178</v>
+        <v>0.02352150690402853</v>
       </c>
       <c r="T10">
-        <v>0.1396541551694178</v>
+        <v>0.02352150690402853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.029478</v>
+      </c>
+      <c r="H11">
+        <v>0.088434</v>
+      </c>
+      <c r="I11">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="J11">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2055986666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.616796</v>
+      </c>
+      <c r="O11">
+        <v>0.07573201644554486</v>
+      </c>
+      <c r="P11">
+        <v>0.07573201644554485</v>
+      </c>
+      <c r="Q11">
+        <v>0.006060637496</v>
+      </c>
+      <c r="R11">
+        <v>0.054545737464</v>
+      </c>
+      <c r="S11">
+        <v>0.01152123974468443</v>
+      </c>
+      <c r="T11">
+        <v>0.01152123974468443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.139663</v>
+      </c>
+      <c r="I12">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J12">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.1625126666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.487538</v>
-      </c>
-      <c r="I11">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="J11">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="K11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8029856666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.408957</v>
+      </c>
+      <c r="O12">
+        <v>0.2957787844613299</v>
+      </c>
+      <c r="P12">
+        <v>0.2957787844613298</v>
+      </c>
+      <c r="Q12">
+        <v>0.03738246238788889</v>
+      </c>
+      <c r="R12">
+        <v>0.336442161491</v>
+      </c>
+      <c r="S12">
+        <v>0.07106386278700413</v>
+      </c>
+      <c r="T12">
+        <v>0.07106386278700412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.139663</v>
+      </c>
+      <c r="I13">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J13">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.2327196666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.698159</v>
-      </c>
-      <c r="O11">
-        <v>0.08903679914952235</v>
-      </c>
-      <c r="P11">
-        <v>0.08903679914952237</v>
-      </c>
-      <c r="Q11">
-        <v>0.03781989361577778</v>
-      </c>
-      <c r="R11">
-        <v>0.340379042542</v>
-      </c>
-      <c r="S11">
-        <v>0.07536620353725498</v>
-      </c>
-      <c r="T11">
-        <v>0.075366203537255</v>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.212652666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.637958</v>
+      </c>
+      <c r="O13">
+        <v>0.4466791209479334</v>
+      </c>
+      <c r="P13">
+        <v>0.4466791209479333</v>
+      </c>
+      <c r="Q13">
+        <v>0.05645423646155557</v>
+      </c>
+      <c r="R13">
+        <v>0.5080881281540001</v>
+      </c>
+      <c r="S13">
+        <v>0.1073192041771123</v>
+      </c>
+      <c r="T13">
+        <v>0.1073192041771123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.139663</v>
+      </c>
+      <c r="I14">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J14">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07383566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.221507</v>
+      </c>
+      <c r="O14">
+        <v>0.02719727716587544</v>
+      </c>
+      <c r="P14">
+        <v>0.02719727716587543</v>
+      </c>
+      <c r="Q14">
+        <v>0.003437370237888889</v>
+      </c>
+      <c r="R14">
+        <v>0.030936332141</v>
+      </c>
+      <c r="S14">
+        <v>0.006534422596319039</v>
+      </c>
+      <c r="T14">
+        <v>0.006534422596319038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.139663</v>
+      </c>
+      <c r="I15">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J15">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4197456666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.259237</v>
+      </c>
+      <c r="O15">
+        <v>0.1546128009793166</v>
+      </c>
+      <c r="P15">
+        <v>0.1546128009793166</v>
+      </c>
+      <c r="Q15">
+        <v>0.01954097968122222</v>
+      </c>
+      <c r="R15">
+        <v>0.175868817131</v>
+      </c>
+      <c r="S15">
+        <v>0.03714729876221066</v>
+      </c>
+      <c r="T15">
+        <v>0.03714729876221066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.139663</v>
+      </c>
+      <c r="I16">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J16">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2055986666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.616796</v>
+      </c>
+      <c r="O16">
+        <v>0.07573201644554486</v>
+      </c>
+      <c r="P16">
+        <v>0.07573201644554485</v>
+      </c>
+      <c r="Q16">
+        <v>0.009571508860888891</v>
+      </c>
+      <c r="R16">
+        <v>0.08614357974800001</v>
+      </c>
+      <c r="S16">
+        <v>0.01819538759370674</v>
+      </c>
+      <c r="T16">
+        <v>0.01819538759370673</v>
       </c>
     </row>
   </sheetData>
